--- a/user_sheets/programacao.xlsx
+++ b/user_sheets/programacao.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet name="programacao" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="production_plan" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet 1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -395,6 +396,57 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>ID Plano</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Produto</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Quantidade</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Data Início</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>Data Fim</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>ID Plano</t>

--- a/user_sheets/programacao.xlsx
+++ b/user_sheets/programacao.xlsx
@@ -6,6 +6,7 @@
     <sheet name="programacao" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="production_plan" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Sheet 1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="obs IA olhar em runtime e salvar" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -447,34 +448,155 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>ID Plano</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Produto</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Quantidade</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Data Início</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>Data Fim</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ID Plano</t>
+          <t>id_programacao</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Produto</t>
+          <t>id_ordem_producao</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Quantidade</t>
+          <t>data_inicio_programada</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Data Início</t>
+          <t>hora_inicio_programada</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Data Fim</t>
+          <t>data_fim_programada</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>hora_fim_programada</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>recurso_alocado</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>operacao_programada</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>sequencia_na_fila</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>status_programacao</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>tempo_restante_programado</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>desvio_tempo_real</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>motivo_desvio</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>prioridade_programacao</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>dependencias_operacionais</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>capacidade_utilizada_percentual</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>tempo_setup_alocado</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>tempo_ciclo_alocado</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>observacoes_programacao</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>responsavel_programacao</t>
         </is>
       </c>
     </row>
